--- a/ANVNSimultaneous_1n_root_bank_thresh1.xlsx
+++ b/ANVNSimultaneous_1n_root_bank_thresh1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wbott\OneDrive\Desktop\wbottom_Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wbott\wbottom_Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343B3D92-FEE6-4A5B-AEDE-E2F974CFD408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A51B72-B4CE-4058-BA2C-BE6E2D9F839C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -748,6 +748,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1023830128"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1462,6 +1463,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1023833008"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2170,6 +2172,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1141524767"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2878,6 +2881,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1149681247"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3592,6 +3596,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1154094607"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4300,6 +4305,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1154109007"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -5014,6 +5020,721 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1154109487"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Max Threshold = 14</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SNN Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$2:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>17.55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35.82</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BD5B-4EBF-914A-DDA46F7238B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="599998719"/>
+        <c:axId val="600024639"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Energy</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$2:$B$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>125</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>175</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>225</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>250</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$2:$B$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>125</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>175</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>225</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>250</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-BD5B-4EBF-914A-DDA46F7238B4}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Spikes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$2:$R$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>940.77947998046875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1368.5927734375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2074.25390625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2617.141845703125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2884.140380859375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2750.328125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2712.720458984375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3904.14111328125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3743.021240234375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3704.520751953125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BD5B-4EBF-914A-DDA46F7238B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="599989599"/>
+        <c:axId val="599984799"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="599998719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="600024639"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="600024639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599998719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="599984799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599989599"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="599989599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="599984799"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -5382,6 +6103,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -8479,6 +9240,522 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9214,16 +10491,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>395287</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>555307</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>136207</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>90487</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>250507</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>29527</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9243,6 +10520,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B812EC8-213B-54C0-AF2B-E10F52933ABC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9538,13 +10851,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9600,7 +10913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9656,7 +10969,7 @@
         <v>940.77947998046875</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9712,7 +11025,7 @@
         <v>1368.5927734375</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -9768,7 +11081,7 @@
         <v>2074.25390625</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -9824,7 +11137,7 @@
         <v>2617.141845703125</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -9880,7 +11193,7 @@
         <v>2884.140380859375</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -9936,7 +11249,7 @@
         <v>2750.328125</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -9992,7 +11305,7 @@
         <v>2712.720458984375</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -10048,7 +11361,7 @@
         <v>3904.14111328125</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -10104,7 +11417,7 @@
         <v>3743.021240234375</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -10160,7 +11473,7 @@
         <v>3704.520751953125</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>1</v>
       </c>
@@ -10210,7 +11523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -10218,7 +11531,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>4</v>
       </c>
@@ -10226,7 +11539,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -10234,7 +11547,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4</v>
       </c>
@@ -10242,7 +11555,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4</v>
       </c>
@@ -10250,7 +11563,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>4</v>
       </c>
@@ -10258,7 +11571,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
@@ -10266,7 +11579,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -10274,7 +11587,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
@@ -10282,7 +11595,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>4</v>
       </c>
@@ -10290,7 +11603,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -10298,7 +11611,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>6</v>
       </c>
@@ -10306,7 +11619,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6</v>
       </c>
@@ -10314,7 +11627,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>6</v>
       </c>
@@ -10322,7 +11635,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>6</v>
       </c>
@@ -10330,7 +11643,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>6</v>
       </c>
@@ -10338,7 +11651,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>6</v>
       </c>
@@ -10346,7 +11659,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>6</v>
       </c>
@@ -10354,7 +11667,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>6</v>
       </c>
@@ -10362,7 +11675,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>6</v>
       </c>
@@ -10370,7 +11683,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>6</v>
       </c>
@@ -10378,7 +11691,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>8</v>
       </c>
@@ -10386,7 +11699,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>8</v>
       </c>
@@ -10394,7 +11707,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>8</v>
       </c>
@@ -10402,7 +11715,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>8</v>
       </c>
@@ -10410,7 +11723,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>8</v>
       </c>
@@ -10418,7 +11731,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>8</v>
       </c>
@@ -10426,7 +11739,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>8</v>
       </c>
@@ -10434,7 +11747,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>8</v>
       </c>
@@ -10442,7 +11755,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>8</v>
       </c>
@@ -10450,7 +11763,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>8</v>
       </c>
@@ -10458,7 +11771,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>10</v>
       </c>
@@ -10466,7 +11779,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>10</v>
       </c>
@@ -10474,7 +11787,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>10</v>
       </c>
@@ -10482,7 +11795,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>10</v>
       </c>
@@ -10490,7 +11803,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>10</v>
       </c>
@@ -10498,7 +11811,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>10</v>
       </c>
@@ -10506,7 +11819,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>10</v>
       </c>
@@ -10514,7 +11827,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>10</v>
       </c>
@@ -10522,7 +11835,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>10</v>
       </c>
@@ -10530,7 +11843,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>10</v>
       </c>
@@ -10538,7 +11851,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>12</v>
       </c>
@@ -10546,7 +11859,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>12</v>
       </c>
@@ -10554,7 +11867,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>12</v>
       </c>
@@ -10562,7 +11875,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>12</v>
       </c>
@@ -10570,7 +11883,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>12</v>
       </c>
@@ -10578,7 +11891,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>12</v>
       </c>
@@ -10586,7 +11899,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>12</v>
       </c>
@@ -10594,7 +11907,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>12</v>
       </c>
@@ -10602,7 +11915,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>12</v>
       </c>
@@ -10610,7 +11923,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>12</v>
       </c>
@@ -10618,7 +11931,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>14</v>
       </c>
@@ -10626,7 +11939,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>14</v>
       </c>
@@ -10634,7 +11947,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>14</v>
       </c>
@@ -10642,7 +11955,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>14</v>
       </c>
@@ -10650,7 +11963,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>14</v>
       </c>
@@ -10658,7 +11971,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>14</v>
       </c>
@@ -10666,7 +11979,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>14</v>
       </c>
@@ -10674,7 +11987,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>14</v>
       </c>
@@ -10682,7 +11995,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>14</v>
       </c>
@@ -10690,7 +12003,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>14</v>
       </c>

--- a/ANVNSimultaneous_1n_root_bank_thresh1.xlsx
+++ b/ANVNSimultaneous_1n_root_bank_thresh1.xlsx
@@ -463,10 +463,10 @@
         <v>250</v>
       </c>
       <c r="C2" t="n">
-        <v>34.05</v>
+        <v>35.26</v>
       </c>
       <c r="D2" t="n">
-        <v>3145.72314453125</v>
+        <v>3874.220703125</v>
       </c>
     </row>
     <row r="3">
@@ -477,10 +477,10 @@
         <v>225</v>
       </c>
       <c r="C3" t="n">
-        <v>36.84</v>
+        <v>38.54</v>
       </c>
       <c r="D3" t="n">
-        <v>4140.30712890625</v>
+        <v>4346.8359375</v>
       </c>
     </row>
     <row r="4">
@@ -491,10 +491,10 @@
         <v>200</v>
       </c>
       <c r="C4" t="n">
-        <v>36.85</v>
+        <v>40.03</v>
       </c>
       <c r="D4" t="n">
-        <v>3662.7744140625</v>
+        <v>4052.457275390625</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         <v>175</v>
       </c>
       <c r="C5" t="n">
-        <v>37.19</v>
+        <v>37.5</v>
       </c>
       <c r="D5" t="n">
-        <v>3181.05615234375</v>
+        <v>3475.51513671875</v>
       </c>
     </row>
     <row r="6">
@@ -519,10 +519,10 @@
         <v>150</v>
       </c>
       <c r="C6" t="n">
-        <v>29.48</v>
+        <v>27.71</v>
       </c>
       <c r="D6" t="n">
-        <v>2483.3486328125</v>
+        <v>2200.71875</v>
       </c>
     </row>
     <row r="7">
@@ -533,10 +533,10 @@
         <v>125</v>
       </c>
       <c r="C7" t="n">
-        <v>38</v>
+        <v>26.64</v>
       </c>
       <c r="D7" t="n">
-        <v>3353.56005859375</v>
+        <v>2169.896728515625</v>
       </c>
     </row>
     <row r="8">
@@ -547,10 +547,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>35.59</v>
+        <v>37.6</v>
       </c>
       <c r="D8" t="n">
-        <v>2950.732421875</v>
+        <v>2882.853271484375</v>
       </c>
     </row>
     <row r="9">
@@ -561,10 +561,10 @@
         <v>75</v>
       </c>
       <c r="C9" t="n">
-        <v>17.44</v>
+        <v>25.98</v>
       </c>
       <c r="D9" t="n">
-        <v>1937.92236328125</v>
+        <v>2076.259521484375</v>
       </c>
     </row>
     <row r="10">
@@ -575,10 +575,10 @@
         <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>21.01</v>
+        <v>33.14</v>
       </c>
       <c r="D10" t="n">
-        <v>1578.99951171875</v>
+        <v>1699.07177734375</v>
       </c>
     </row>
     <row r="11">
@@ -589,10 +589,10 @@
         <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>17.94</v>
+        <v>25.07</v>
       </c>
       <c r="D11" t="n">
-        <v>874.5359497070312</v>
+        <v>772.4668579101562</v>
       </c>
     </row>
     <row r="12">
@@ -603,10 +603,10 @@
         <v>250</v>
       </c>
       <c r="C12" t="n">
-        <v>40.5</v>
+        <v>34.56</v>
       </c>
       <c r="D12" t="n">
-        <v>4309.9931640625</v>
+        <v>3365.01513671875</v>
       </c>
     </row>
     <row r="13">
@@ -617,10 +617,10 @@
         <v>225</v>
       </c>
       <c r="C13" t="n">
-        <v>23.28</v>
+        <v>29.14</v>
       </c>
       <c r="D13" t="n">
-        <v>2844.327880859375</v>
+        <v>3251.26416015625</v>
       </c>
     </row>
     <row r="14">
@@ -631,10 +631,10 @@
         <v>200</v>
       </c>
       <c r="C14" t="n">
-        <v>35.58</v>
+        <v>39.4</v>
       </c>
       <c r="D14" t="n">
-        <v>3777.39208984375</v>
+        <v>4173.81982421875</v>
       </c>
     </row>
     <row r="15">
@@ -645,10 +645,10 @@
         <v>175</v>
       </c>
       <c r="C15" t="n">
-        <v>35.32</v>
+        <v>34.44</v>
       </c>
       <c r="D15" t="n">
-        <v>4061.61962890625</v>
+        <v>3340.534423828125</v>
       </c>
     </row>
     <row r="16">
@@ -659,10 +659,10 @@
         <v>150</v>
       </c>
       <c r="C16" t="n">
-        <v>37.99</v>
+        <v>34.82</v>
       </c>
       <c r="D16" t="n">
-        <v>3415.694091796875</v>
+        <v>3165.16650390625</v>
       </c>
     </row>
     <row r="17">
@@ -673,10 +673,10 @@
         <v>125</v>
       </c>
       <c r="C17" t="n">
-        <v>31.84</v>
+        <v>32.25</v>
       </c>
       <c r="D17" t="n">
-        <v>3180.3828125</v>
+        <v>2984.06787109375</v>
       </c>
     </row>
     <row r="18">
@@ -687,10 +687,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>32.95</v>
+        <v>27.92</v>
       </c>
       <c r="D18" t="n">
-        <v>2755.789794921875</v>
+        <v>2402.924560546875</v>
       </c>
     </row>
     <row r="19">
@@ -701,10 +701,10 @@
         <v>75</v>
       </c>
       <c r="C19" t="n">
-        <v>28.38</v>
+        <v>28.27</v>
       </c>
       <c r="D19" t="n">
-        <v>2363.884765625</v>
+        <v>2282.41796875</v>
       </c>
     </row>
     <row r="20">
@@ -715,10 +715,10 @@
         <v>50</v>
       </c>
       <c r="C20" t="n">
-        <v>26.03</v>
+        <v>32.11</v>
       </c>
       <c r="D20" t="n">
-        <v>1788.488159179688</v>
+        <v>1627.966064453125</v>
       </c>
     </row>
     <row r="21">
@@ -729,10 +729,10 @@
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>18.34</v>
+        <v>20.65</v>
       </c>
       <c r="D21" t="n">
-        <v>762.5478515625</v>
+        <v>927.30908203125</v>
       </c>
     </row>
     <row r="22">
@@ -743,10 +743,10 @@
         <v>250</v>
       </c>
       <c r="C22" t="n">
-        <v>35.05</v>
+        <v>34.89</v>
       </c>
       <c r="D22" t="n">
-        <v>4328.099609375</v>
+        <v>2890.16162109375</v>
       </c>
     </row>
     <row r="23">
@@ -757,10 +757,10 @@
         <v>225</v>
       </c>
       <c r="C23" t="n">
-        <v>39.53</v>
+        <v>32.76</v>
       </c>
       <c r="D23" t="n">
-        <v>4145.87353515625</v>
+        <v>4035.637939453125</v>
       </c>
     </row>
     <row r="24">
@@ -771,10 +771,10 @@
         <v>200</v>
       </c>
       <c r="C24" t="n">
-        <v>31.42</v>
+        <v>35.06</v>
       </c>
       <c r="D24" t="n">
-        <v>3959.602294921875</v>
+        <v>3333.74072265625</v>
       </c>
     </row>
     <row r="25">
@@ -785,10 +785,10 @@
         <v>175</v>
       </c>
       <c r="C25" t="n">
-        <v>35.44</v>
+        <v>34.95</v>
       </c>
       <c r="D25" t="n">
-        <v>3254.619140625</v>
+        <v>2821.597900390625</v>
       </c>
     </row>
     <row r="26">
@@ -799,10 +799,10 @@
         <v>150</v>
       </c>
       <c r="C26" t="n">
-        <v>37.03</v>
+        <v>32.67</v>
       </c>
       <c r="D26" t="n">
-        <v>2851.028076171875</v>
+        <v>3358.9658203125</v>
       </c>
     </row>
     <row r="27">
@@ -813,10 +813,10 @@
         <v>125</v>
       </c>
       <c r="C27" t="n">
-        <v>34.94</v>
+        <v>33.49</v>
       </c>
       <c r="D27" t="n">
-        <v>3139.029296875</v>
+        <v>2894.4599609375</v>
       </c>
     </row>
     <row r="28">
@@ -827,10 +827,10 @@
         <v>100</v>
       </c>
       <c r="C28" t="n">
-        <v>33.16</v>
+        <v>27.49</v>
       </c>
       <c r="D28" t="n">
-        <v>2597.41064453125</v>
+        <v>2850.90966796875</v>
       </c>
     </row>
     <row r="29">
@@ -841,10 +841,10 @@
         <v>75</v>
       </c>
       <c r="C29" t="n">
-        <v>21.86</v>
+        <v>29.91</v>
       </c>
       <c r="D29" t="n">
-        <v>2130.96142578125</v>
+        <v>2275.903076171875</v>
       </c>
     </row>
     <row r="30">
@@ -855,10 +855,10 @@
         <v>50</v>
       </c>
       <c r="C30" t="n">
-        <v>19.78</v>
+        <v>25.88</v>
       </c>
       <c r="D30" t="n">
-        <v>1260.113037109375</v>
+        <v>1489.222045898438</v>
       </c>
     </row>
     <row r="31">
@@ -869,10 +869,10 @@
         <v>25</v>
       </c>
       <c r="C31" t="n">
-        <v>19.6</v>
+        <v>21.83</v>
       </c>
       <c r="D31" t="n">
-        <v>882.2979125976562</v>
+        <v>906.4639892578125</v>
       </c>
     </row>
     <row r="32">
@@ -883,10 +883,10 @@
         <v>250</v>
       </c>
       <c r="C32" t="n">
-        <v>42.06</v>
+        <v>36.35</v>
       </c>
       <c r="D32" t="n">
-        <v>4464.5498046875</v>
+        <v>4180.36767578125</v>
       </c>
     </row>
     <row r="33">
@@ -897,10 +897,10 @@
         <v>225</v>
       </c>
       <c r="C33" t="n">
-        <v>38.96</v>
+        <v>40.89</v>
       </c>
       <c r="D33" t="n">
-        <v>4037.03369140625</v>
+        <v>3868.91650390625</v>
       </c>
     </row>
     <row r="34">
@@ -911,10 +911,10 @@
         <v>200</v>
       </c>
       <c r="C34" t="n">
-        <v>32.1</v>
+        <v>32.99</v>
       </c>
       <c r="D34" t="n">
-        <v>4093.649658203125</v>
+        <v>3480.0927734375</v>
       </c>
     </row>
     <row r="35">
@@ -925,10 +925,10 @@
         <v>175</v>
       </c>
       <c r="C35" t="n">
-        <v>35.76</v>
+        <v>35.62</v>
       </c>
       <c r="D35" t="n">
-        <v>3866.552978515625</v>
+        <v>3412.837158203125</v>
       </c>
     </row>
     <row r="36">
@@ -939,10 +939,10 @@
         <v>150</v>
       </c>
       <c r="C36" t="n">
-        <v>23.98</v>
+        <v>37.54</v>
       </c>
       <c r="D36" t="n">
-        <v>1995.1982421875</v>
+        <v>3076.251220703125</v>
       </c>
     </row>
     <row r="37">
@@ -953,10 +953,10 @@
         <v>125</v>
       </c>
       <c r="C37" t="n">
-        <v>32.68</v>
+        <v>32.23</v>
       </c>
       <c r="D37" t="n">
-        <v>2911.623779296875</v>
+        <v>2792.479248046875</v>
       </c>
     </row>
     <row r="38">
@@ -967,10 +967,10 @@
         <v>100</v>
       </c>
       <c r="C38" t="n">
-        <v>26.57</v>
+        <v>28.46</v>
       </c>
       <c r="D38" t="n">
-        <v>2282.117431640625</v>
+        <v>2526.249755859375</v>
       </c>
     </row>
     <row r="39">
@@ -981,10 +981,10 @@
         <v>75</v>
       </c>
       <c r="C39" t="n">
-        <v>30.66</v>
+        <v>24.42</v>
       </c>
       <c r="D39" t="n">
-        <v>2253.974365234375</v>
+        <v>2324.971435546875</v>
       </c>
     </row>
     <row r="40">
@@ -995,10 +995,10 @@
         <v>50</v>
       </c>
       <c r="C40" t="n">
-        <v>26.57</v>
+        <v>25.9</v>
       </c>
       <c r="D40" t="n">
-        <v>1424.843627929688</v>
+        <v>1754.561157226562</v>
       </c>
     </row>
     <row r="41">
@@ -1009,10 +1009,10 @@
         <v>25</v>
       </c>
       <c r="C41" t="n">
-        <v>20.03</v>
+        <v>28.51</v>
       </c>
       <c r="D41" t="n">
-        <v>830.0609741210938</v>
+        <v>859.9099731445312</v>
       </c>
     </row>
     <row r="42">
@@ -1023,10 +1023,10 @@
         <v>250</v>
       </c>
       <c r="C42" t="n">
-        <v>35.91</v>
+        <v>40.21</v>
       </c>
       <c r="D42" t="n">
-        <v>4080.479248046875</v>
+        <v>4061.835205078125</v>
       </c>
     </row>
     <row r="43">
@@ -1037,10 +1037,10 @@
         <v>225</v>
       </c>
       <c r="C43" t="n">
-        <v>35.15</v>
+        <v>41.75</v>
       </c>
       <c r="D43" t="n">
-        <v>3492.119873046875</v>
+        <v>4253.7177734375</v>
       </c>
     </row>
     <row r="44">
@@ -1051,10 +1051,10 @@
         <v>200</v>
       </c>
       <c r="C44" t="n">
-        <v>24.62</v>
+        <v>37.17</v>
       </c>
       <c r="D44" t="n">
-        <v>2984.9599609375</v>
+        <v>4057.86474609375</v>
       </c>
     </row>
     <row r="45">
@@ -1065,10 +1065,10 @@
         <v>175</v>
       </c>
       <c r="C45" t="n">
-        <v>34.45</v>
+        <v>38.39</v>
       </c>
       <c r="D45" t="n">
-        <v>3781.42431640625</v>
+        <v>3358.074462890625</v>
       </c>
     </row>
     <row r="46">
@@ -1079,10 +1079,10 @@
         <v>150</v>
       </c>
       <c r="C46" t="n">
-        <v>33.77</v>
+        <v>23.36</v>
       </c>
       <c r="D46" t="n">
-        <v>3447.466552734375</v>
+        <v>3223.14306640625</v>
       </c>
     </row>
     <row r="47">
@@ -1093,10 +1093,10 @@
         <v>125</v>
       </c>
       <c r="C47" t="n">
-        <v>37.17</v>
+        <v>31.5</v>
       </c>
       <c r="D47" t="n">
-        <v>3410.396484375</v>
+        <v>2582.254638671875</v>
       </c>
     </row>
     <row r="48">
@@ -1107,10 +1107,10 @@
         <v>100</v>
       </c>
       <c r="C48" t="n">
-        <v>33.86</v>
+        <v>28.98</v>
       </c>
       <c r="D48" t="n">
-        <v>2647.728759765625</v>
+        <v>2716.38427734375</v>
       </c>
     </row>
     <row r="49">
@@ -1121,10 +1121,10 @@
         <v>75</v>
       </c>
       <c r="C49" t="n">
-        <v>30.79</v>
+        <v>31.27</v>
       </c>
       <c r="D49" t="n">
-        <v>2230.572998046875</v>
+        <v>1896.833251953125</v>
       </c>
     </row>
     <row r="50">
@@ -1135,10 +1135,10 @@
         <v>50</v>
       </c>
       <c r="C50" t="n">
-        <v>23.15</v>
+        <v>19.88</v>
       </c>
       <c r="D50" t="n">
-        <v>1512.600830078125</v>
+        <v>1559.9267578125</v>
       </c>
     </row>
     <row r="51">
@@ -1149,10 +1149,10 @@
         <v>25</v>
       </c>
       <c r="C51" t="n">
-        <v>23.24</v>
+        <v>19.64</v>
       </c>
       <c r="D51" t="n">
-        <v>776.635009765625</v>
+        <v>736.5908813476562</v>
       </c>
     </row>
     <row r="52">
@@ -1163,10 +1163,10 @@
         <v>250</v>
       </c>
       <c r="C52" t="n">
-        <v>34.6</v>
+        <v>38.69</v>
       </c>
       <c r="D52" t="n">
-        <v>4131.357421875</v>
+        <v>4084.8466796875</v>
       </c>
     </row>
     <row r="53">
@@ -1177,10 +1177,10 @@
         <v>225</v>
       </c>
       <c r="C53" t="n">
-        <v>37.38</v>
+        <v>39.38</v>
       </c>
       <c r="D53" t="n">
-        <v>4316.68408203125</v>
+        <v>4131.375</v>
       </c>
     </row>
     <row r="54">
@@ -1191,10 +1191,10 @@
         <v>200</v>
       </c>
       <c r="C54" t="n">
-        <v>40.47</v>
+        <v>37.58</v>
       </c>
       <c r="D54" t="n">
-        <v>3969.71044921875</v>
+        <v>3708.03369140625</v>
       </c>
     </row>
     <row r="55">
@@ -1205,10 +1205,10 @@
         <v>175</v>
       </c>
       <c r="C55" t="n">
-        <v>30.67</v>
+        <v>28.56</v>
       </c>
       <c r="D55" t="n">
-        <v>2208.16015625</v>
+        <v>3221.086181640625</v>
       </c>
     </row>
     <row r="56">
@@ -1219,10 +1219,10 @@
         <v>150</v>
       </c>
       <c r="C56" t="n">
-        <v>35.46</v>
+        <v>37.47</v>
       </c>
       <c r="D56" t="n">
-        <v>3236.51416015625</v>
+        <v>3262.574951171875</v>
       </c>
     </row>
     <row r="57">
@@ -1233,10 +1233,10 @@
         <v>125</v>
       </c>
       <c r="C57" t="n">
-        <v>28.7</v>
+        <v>36.82</v>
       </c>
       <c r="D57" t="n">
-        <v>2732.743896484375</v>
+        <v>3109.96630859375</v>
       </c>
     </row>
     <row r="58">
@@ -1247,10 +1247,10 @@
         <v>100</v>
       </c>
       <c r="C58" t="n">
-        <v>34.95</v>
+        <v>27.43</v>
       </c>
       <c r="D58" t="n">
-        <v>2988.34521484375</v>
+        <v>1790.39404296875</v>
       </c>
     </row>
     <row r="59">
@@ -1261,10 +1261,10 @@
         <v>75</v>
       </c>
       <c r="C59" t="n">
-        <v>18.1</v>
+        <v>27.2</v>
       </c>
       <c r="D59" t="n">
-        <v>1911.336669921875</v>
+        <v>2155.097900390625</v>
       </c>
     </row>
     <row r="60">
@@ -1275,10 +1275,10 @@
         <v>50</v>
       </c>
       <c r="C60" t="n">
-        <v>30.16</v>
+        <v>26.75</v>
       </c>
       <c r="D60" t="n">
-        <v>1443.101684570312</v>
+        <v>1299.597290039062</v>
       </c>
     </row>
     <row r="61">
@@ -1289,10 +1289,10 @@
         <v>25</v>
       </c>
       <c r="C61" t="n">
-        <v>27.28</v>
+        <v>16.63</v>
       </c>
       <c r="D61" t="n">
-        <v>900.493896484375</v>
+        <v>942.3541259765625</v>
       </c>
     </row>
     <row r="62">
@@ -1303,10 +1303,10 @@
         <v>250</v>
       </c>
       <c r="C62" t="n">
-        <v>29.48</v>
+        <v>34.92</v>
       </c>
       <c r="D62" t="n">
-        <v>3551.2470703125</v>
+        <v>2703.10107421875</v>
       </c>
     </row>
     <row r="63">
@@ -1317,10 +1317,10 @@
         <v>225</v>
       </c>
       <c r="C63" t="n">
-        <v>33.26</v>
+        <v>35.26</v>
       </c>
       <c r="D63" t="n">
-        <v>3208.277099609375</v>
+        <v>3441.67529296875</v>
       </c>
     </row>
     <row r="64">
@@ -1331,10 +1331,10 @@
         <v>200</v>
       </c>
       <c r="C64" t="n">
-        <v>27.44</v>
+        <v>33.56</v>
       </c>
       <c r="D64" t="n">
-        <v>2902.90576171875</v>
+        <v>4265.52099609375</v>
       </c>
     </row>
     <row r="65">
@@ -1345,10 +1345,10 @@
         <v>175</v>
       </c>
       <c r="C65" t="n">
-        <v>35.41</v>
+        <v>24.3</v>
       </c>
       <c r="D65" t="n">
-        <v>3528.676025390625</v>
+        <v>2826.346435546875</v>
       </c>
     </row>
     <row r="66">
@@ -1359,10 +1359,10 @@
         <v>150</v>
       </c>
       <c r="C66" t="n">
-        <v>33.5</v>
+        <v>33.35</v>
       </c>
       <c r="D66" t="n">
-        <v>2182.477783203125</v>
+        <v>3348.307373046875</v>
       </c>
     </row>
     <row r="67">
@@ -1373,10 +1373,10 @@
         <v>125</v>
       </c>
       <c r="C67" t="n">
-        <v>36</v>
+        <v>31.77</v>
       </c>
       <c r="D67" t="n">
-        <v>2562.093994140625</v>
+        <v>3077.419921875</v>
       </c>
     </row>
     <row r="68">
@@ -1387,10 +1387,10 @@
         <v>100</v>
       </c>
       <c r="C68" t="n">
-        <v>31.9</v>
+        <v>32.76</v>
       </c>
       <c r="D68" t="n">
-        <v>2310.359130859375</v>
+        <v>2402.736328125</v>
       </c>
     </row>
     <row r="69">
@@ -1401,10 +1401,10 @@
         <v>75</v>
       </c>
       <c r="C69" t="n">
-        <v>27.77</v>
+        <v>29.46</v>
       </c>
       <c r="D69" t="n">
-        <v>2148.43603515625</v>
+        <v>2334.65966796875</v>
       </c>
     </row>
     <row r="70">
@@ -1415,10 +1415,10 @@
         <v>50</v>
       </c>
       <c r="C70" t="n">
-        <v>21.41</v>
+        <v>30.53</v>
       </c>
       <c r="D70" t="n">
-        <v>1521.409545898438</v>
+        <v>1683.947021484375</v>
       </c>
     </row>
     <row r="71">
@@ -1429,10 +1429,10 @@
         <v>25</v>
       </c>
       <c r="C71" t="n">
-        <v>27.85</v>
+        <v>22.54</v>
       </c>
       <c r="D71" t="n">
-        <v>953.363525390625</v>
+        <v>914.8504028320312</v>
       </c>
     </row>
     <row r="72">
@@ -1443,10 +1443,10 @@
         <v>250</v>
       </c>
       <c r="C72" t="n">
-        <v>39.15</v>
+        <v>27.29</v>
       </c>
       <c r="D72" t="n">
-        <v>4511.4248046875</v>
+        <v>3466.318359375</v>
       </c>
     </row>
     <row r="73">
@@ -1457,10 +1457,10 @@
         <v>225</v>
       </c>
       <c r="C73" t="n">
-        <v>34.68</v>
+        <v>34.32</v>
       </c>
       <c r="D73" t="n">
-        <v>5061.78271484375</v>
+        <v>3737.78662109375</v>
       </c>
     </row>
     <row r="74">
@@ -1471,10 +1471,10 @@
         <v>200</v>
       </c>
       <c r="C74" t="n">
-        <v>39.65</v>
+        <v>30.45</v>
       </c>
       <c r="D74" t="n">
-        <v>3430.77880859375</v>
+        <v>3490.301513671875</v>
       </c>
     </row>
     <row r="75">
@@ -1485,10 +1485,10 @@
         <v>175</v>
       </c>
       <c r="C75" t="n">
-        <v>36.17</v>
+        <v>32.37</v>
       </c>
       <c r="D75" t="n">
-        <v>3726.478271484375</v>
+        <v>3280.9921875</v>
       </c>
     </row>
     <row r="76">
@@ -1499,10 +1499,10 @@
         <v>150</v>
       </c>
       <c r="C76" t="n">
-        <v>32.12</v>
+        <v>25.28</v>
       </c>
       <c r="D76" t="n">
-        <v>2868.9580078125</v>
+        <v>2504.60400390625</v>
       </c>
     </row>
     <row r="77">
@@ -1513,10 +1513,10 @@
         <v>125</v>
       </c>
       <c r="C77" t="n">
-        <v>33.51</v>
+        <v>33.85</v>
       </c>
       <c r="D77" t="n">
-        <v>3207.951416015625</v>
+        <v>2942.623046875</v>
       </c>
     </row>
     <row r="78">
@@ -1527,10 +1527,10 @@
         <v>100</v>
       </c>
       <c r="C78" t="n">
-        <v>29.27</v>
+        <v>30.33</v>
       </c>
       <c r="D78" t="n">
-        <v>2092.123291015625</v>
+        <v>2473.89453125</v>
       </c>
     </row>
     <row r="79">
@@ -1541,10 +1541,10 @@
         <v>75</v>
       </c>
       <c r="C79" t="n">
-        <v>34.45</v>
+        <v>29.63</v>
       </c>
       <c r="D79" t="n">
-        <v>2421.711669921875</v>
+        <v>2314.53125</v>
       </c>
     </row>
     <row r="80">
@@ -1555,10 +1555,10 @@
         <v>50</v>
       </c>
       <c r="C80" t="n">
-        <v>28.94</v>
+        <v>25.08</v>
       </c>
       <c r="D80" t="n">
-        <v>1826.054931640625</v>
+        <v>1334.920043945312</v>
       </c>
     </row>
     <row r="81">
@@ -1569,10 +1569,10 @@
         <v>25</v>
       </c>
       <c r="C81" t="n">
-        <v>18.16</v>
+        <v>19.24</v>
       </c>
       <c r="D81" t="n">
-        <v>799.5264282226562</v>
+        <v>896.7805786132812</v>
       </c>
     </row>
     <row r="82">
@@ -1583,10 +1583,10 @@
         <v>250</v>
       </c>
       <c r="C82" t="n">
-        <v>36.25</v>
+        <v>40.45</v>
       </c>
       <c r="D82" t="n">
-        <v>4262.3046875</v>
+        <v>4264.9267578125</v>
       </c>
     </row>
     <row r="83">
@@ -1597,10 +1597,10 @@
         <v>225</v>
       </c>
       <c r="C83" t="n">
-        <v>33.68</v>
+        <v>33.03</v>
       </c>
       <c r="D83" t="n">
-        <v>3882.8935546875</v>
+        <v>4300.37060546875</v>
       </c>
     </row>
     <row r="84">
@@ -1611,10 +1611,10 @@
         <v>200</v>
       </c>
       <c r="C84" t="n">
-        <v>23.78</v>
+        <v>35.64</v>
       </c>
       <c r="D84" t="n">
-        <v>2907.586181640625</v>
+        <v>4146.3583984375</v>
       </c>
     </row>
     <row r="85">
@@ -1625,10 +1625,10 @@
         <v>175</v>
       </c>
       <c r="C85" t="n">
-        <v>28.77</v>
+        <v>26.93</v>
       </c>
       <c r="D85" t="n">
-        <v>2145.03955078125</v>
+        <v>3765.2421875</v>
       </c>
     </row>
     <row r="86">
@@ -1639,10 +1639,10 @@
         <v>150</v>
       </c>
       <c r="C86" t="n">
-        <v>34.51</v>
+        <v>37.6</v>
       </c>
       <c r="D86" t="n">
-        <v>3242.8505859375</v>
+        <v>3149.8427734375</v>
       </c>
     </row>
     <row r="87">
@@ -1653,10 +1653,10 @@
         <v>125</v>
       </c>
       <c r="C87" t="n">
-        <v>28.63</v>
+        <v>29.39</v>
       </c>
       <c r="D87" t="n">
-        <v>2600.976806640625</v>
+        <v>3030.368896484375</v>
       </c>
     </row>
     <row r="88">
@@ -1667,10 +1667,10 @@
         <v>100</v>
       </c>
       <c r="C88" t="n">
-        <v>32.64</v>
+        <v>28.67</v>
       </c>
       <c r="D88" t="n">
-        <v>2940.239501953125</v>
+        <v>2396.369873046875</v>
       </c>
     </row>
     <row r="89">
@@ -1681,10 +1681,10 @@
         <v>75</v>
       </c>
       <c r="C89" t="n">
-        <v>23.66</v>
+        <v>30.99</v>
       </c>
       <c r="D89" t="n">
-        <v>1987.105102539062</v>
+        <v>2065.72265625</v>
       </c>
     </row>
     <row r="90">
@@ -1695,10 +1695,10 @@
         <v>50</v>
       </c>
       <c r="C90" t="n">
-        <v>27.54</v>
+        <v>27.41</v>
       </c>
       <c r="D90" t="n">
-        <v>1656.049438476562</v>
+        <v>1422.536010742188</v>
       </c>
     </row>
     <row r="91">
@@ -1709,10 +1709,10 @@
         <v>25</v>
       </c>
       <c r="C91" t="n">
-        <v>20.93</v>
+        <v>26.01</v>
       </c>
       <c r="D91" t="n">
-        <v>943.4552612304688</v>
+        <v>946.2990112304688</v>
       </c>
     </row>
     <row r="92">
@@ -1723,10 +1723,10 @@
         <v>250</v>
       </c>
       <c r="C92" t="n">
-        <v>37.29</v>
+        <v>39.35</v>
       </c>
       <c r="D92" t="n">
-        <v>4683.31982421875</v>
+        <v>4246.59423828125</v>
       </c>
     </row>
     <row r="93">
@@ -1737,10 +1737,10 @@
         <v>225</v>
       </c>
       <c r="C93" t="n">
-        <v>42.29</v>
+        <v>41.12</v>
       </c>
       <c r="D93" t="n">
-        <v>4273.1884765625</v>
+        <v>4008.994384765625</v>
       </c>
     </row>
     <row r="94">
@@ -1751,10 +1751,10 @@
         <v>200</v>
       </c>
       <c r="C94" t="n">
-        <v>36.09</v>
+        <v>35.64</v>
       </c>
       <c r="D94" t="n">
-        <v>3980.81640625</v>
+        <v>3212.622802734375</v>
       </c>
     </row>
     <row r="95">
@@ -1765,10 +1765,10 @@
         <v>175</v>
       </c>
       <c r="C95" t="n">
-        <v>29.44</v>
+        <v>35.77</v>
       </c>
       <c r="D95" t="n">
-        <v>3333.014404296875</v>
+        <v>3842.39404296875</v>
       </c>
     </row>
     <row r="96">
@@ -1779,10 +1779,10 @@
         <v>150</v>
       </c>
       <c r="C96" t="n">
-        <v>34.82</v>
+        <v>37.71</v>
       </c>
       <c r="D96" t="n">
-        <v>2954.58837890625</v>
+        <v>3372.02978515625</v>
       </c>
     </row>
     <row r="97">
@@ -1793,10 +1793,10 @@
         <v>125</v>
       </c>
       <c r="C97" t="n">
-        <v>33.29</v>
+        <v>28.09</v>
       </c>
       <c r="D97" t="n">
-        <v>2760.4521484375</v>
+        <v>2418.537109375</v>
       </c>
     </row>
     <row r="98">
@@ -1807,10 +1807,10 @@
         <v>100</v>
       </c>
       <c r="C98" t="n">
-        <v>30.48</v>
+        <v>36.18</v>
       </c>
       <c r="D98" t="n">
-        <v>2413.502685546875</v>
+        <v>2808.197998046875</v>
       </c>
     </row>
     <row r="99">
@@ -1821,10 +1821,10 @@
         <v>75</v>
       </c>
       <c r="C99" t="n">
-        <v>29.44</v>
+        <v>33.88</v>
       </c>
       <c r="D99" t="n">
-        <v>2073.83203125</v>
+        <v>2251.0205078125</v>
       </c>
     </row>
     <row r="100">
@@ -1835,10 +1835,10 @@
         <v>50</v>
       </c>
       <c r="C100" t="n">
-        <v>30</v>
+        <v>21.81</v>
       </c>
       <c r="D100" t="n">
-        <v>1560.215209960938</v>
+        <v>1604.728881835938</v>
       </c>
     </row>
     <row r="101">
@@ -1849,10 +1849,10 @@
         <v>25</v>
       </c>
       <c r="C101" t="n">
-        <v>15.16</v>
+        <v>24.39</v>
       </c>
       <c r="D101" t="n">
-        <v>858.7706909179688</v>
+        <v>849.87060546875</v>
       </c>
     </row>
     <row r="102">
@@ -1863,10 +1863,10 @@
         <v>250</v>
       </c>
       <c r="C102" t="n">
-        <v>35.61</v>
+        <v>39</v>
       </c>
       <c r="D102" t="n">
-        <v>4282.9990234375</v>
+        <v>4262.359375</v>
       </c>
     </row>
     <row r="103">
@@ -1877,10 +1877,10 @@
         <v>225</v>
       </c>
       <c r="C103" t="n">
-        <v>37.34</v>
+        <v>34.04</v>
       </c>
       <c r="D103" t="n">
-        <v>4110.8671875</v>
+        <v>3657.77099609375</v>
       </c>
     </row>
     <row r="104">
@@ -1891,10 +1891,10 @@
         <v>200</v>
       </c>
       <c r="C104" t="n">
-        <v>35.02</v>
+        <v>24.23</v>
       </c>
       <c r="D104" t="n">
-        <v>3677.2373046875</v>
+        <v>2659.919189453125</v>
       </c>
     </row>
     <row r="105">
@@ -1905,10 +1905,10 @@
         <v>175</v>
       </c>
       <c r="C105" t="n">
-        <v>26.84</v>
+        <v>34.71</v>
       </c>
       <c r="D105" t="n">
-        <v>2278.432861328125</v>
+        <v>3687.67529296875</v>
       </c>
     </row>
     <row r="106">
@@ -1919,10 +1919,10 @@
         <v>150</v>
       </c>
       <c r="C106" t="n">
-        <v>31.9</v>
+        <v>39.04</v>
       </c>
       <c r="D106" t="n">
-        <v>3023.7236328125</v>
+        <v>3213.670166015625</v>
       </c>
     </row>
     <row r="107">
@@ -1933,10 +1933,10 @@
         <v>125</v>
       </c>
       <c r="C107" t="n">
-        <v>30.27</v>
+        <v>28.02</v>
       </c>
       <c r="D107" t="n">
-        <v>2797.152587890625</v>
+        <v>2412.779541015625</v>
       </c>
     </row>
     <row r="108">
@@ -1947,10 +1947,10 @@
         <v>100</v>
       </c>
       <c r="C108" t="n">
-        <v>22.66</v>
+        <v>35.3</v>
       </c>
       <c r="D108" t="n">
-        <v>2696.551025390625</v>
+        <v>2522.393310546875</v>
       </c>
     </row>
     <row r="109">
@@ -1961,10 +1961,10 @@
         <v>75</v>
       </c>
       <c r="C109" t="n">
-        <v>25.53</v>
+        <v>30.62</v>
       </c>
       <c r="D109" t="n">
-        <v>1507.76904296875</v>
+        <v>1872.343872070312</v>
       </c>
     </row>
     <row r="110">
@@ -1975,10 +1975,10 @@
         <v>50</v>
       </c>
       <c r="C110" t="n">
-        <v>29.94</v>
+        <v>28.66</v>
       </c>
       <c r="D110" t="n">
-        <v>1633.713256835938</v>
+        <v>1285.242797851562</v>
       </c>
     </row>
     <row r="111">
@@ -1989,10 +1989,10 @@
         <v>25</v>
       </c>
       <c r="C111" t="n">
-        <v>24.27</v>
+        <v>16.82</v>
       </c>
       <c r="D111" t="n">
-        <v>963.5758666992188</v>
+        <v>736.2239990234375</v>
       </c>
     </row>
     <row r="112">
@@ -2003,10 +2003,10 @@
         <v>250</v>
       </c>
       <c r="C112" t="n">
-        <v>34.59</v>
+        <v>37.2</v>
       </c>
       <c r="D112" t="n">
-        <v>4044.313232421875</v>
+        <v>3415.751708984375</v>
       </c>
     </row>
     <row r="113">
@@ -2017,10 +2017,10 @@
         <v>225</v>
       </c>
       <c r="C113" t="n">
-        <v>23.58</v>
+        <v>38.83</v>
       </c>
       <c r="D113" t="n">
-        <v>3296.35400390625</v>
+        <v>4320.8193359375</v>
       </c>
     </row>
     <row r="114">
@@ -2031,10 +2031,10 @@
         <v>200</v>
       </c>
       <c r="C114" t="n">
-        <v>31.4</v>
+        <v>31.82</v>
       </c>
       <c r="D114" t="n">
-        <v>3462.654052734375</v>
+        <v>3503.665771484375</v>
       </c>
     </row>
     <row r="115">
@@ -2045,10 +2045,10 @@
         <v>175</v>
       </c>
       <c r="C115" t="n">
-        <v>36.11</v>
+        <v>33.89</v>
       </c>
       <c r="D115" t="n">
-        <v>3607.53173828125</v>
+        <v>3686.07373046875</v>
       </c>
     </row>
     <row r="116">
@@ -2059,10 +2059,10 @@
         <v>150</v>
       </c>
       <c r="C116" t="n">
-        <v>34.58</v>
+        <v>36.02</v>
       </c>
       <c r="D116" t="n">
-        <v>3377.126953125</v>
+        <v>2090.776123046875</v>
       </c>
     </row>
     <row r="117">
@@ -2073,10 +2073,10 @@
         <v>125</v>
       </c>
       <c r="C117" t="n">
-        <v>35.17</v>
+        <v>30.3</v>
       </c>
       <c r="D117" t="n">
-        <v>2958.230712890625</v>
+        <v>2527.974365234375</v>
       </c>
     </row>
     <row r="118">
@@ -2087,10 +2087,10 @@
         <v>100</v>
       </c>
       <c r="C118" t="n">
-        <v>34.89</v>
+        <v>21.45</v>
       </c>
       <c r="D118" t="n">
-        <v>2943.341552734375</v>
+        <v>2499.85693359375</v>
       </c>
     </row>
     <row r="119">
@@ -2101,10 +2101,10 @@
         <v>75</v>
       </c>
       <c r="C119" t="n">
-        <v>25.78</v>
+        <v>29.27</v>
       </c>
       <c r="D119" t="n">
-        <v>2313.704345703125</v>
+        <v>1928.028564453125</v>
       </c>
     </row>
     <row r="120">
@@ -2115,10 +2115,10 @@
         <v>50</v>
       </c>
       <c r="C120" t="n">
-        <v>29.05</v>
+        <v>22.79</v>
       </c>
       <c r="D120" t="n">
-        <v>1646.357666015625</v>
+        <v>1168.32763671875</v>
       </c>
     </row>
     <row r="121">
@@ -2129,10 +2129,10 @@
         <v>25</v>
       </c>
       <c r="C121" t="n">
-        <v>28.77</v>
+        <v>20.71</v>
       </c>
       <c r="D121" t="n">
-        <v>871.9814453125</v>
+        <v>759.1631469726562</v>
       </c>
     </row>
     <row r="122">
@@ -2143,10 +2143,10 @@
         <v>250</v>
       </c>
       <c r="C122" t="n">
-        <v>36.05</v>
+        <v>37.69</v>
       </c>
       <c r="D122" t="n">
-        <v>5063.369140625</v>
+        <v>3441.896728515625</v>
       </c>
     </row>
     <row r="123">
@@ -2157,10 +2157,10 @@
         <v>225</v>
       </c>
       <c r="C123" t="n">
-        <v>35.42</v>
+        <v>34.88</v>
       </c>
       <c r="D123" t="n">
-        <v>3796.414794921875</v>
+        <v>3363.333251953125</v>
       </c>
     </row>
     <row r="124">
@@ -2171,10 +2171,10 @@
         <v>200</v>
       </c>
       <c r="C124" t="n">
-        <v>39.52</v>
+        <v>35.71</v>
       </c>
       <c r="D124" t="n">
-        <v>3363.51513671875</v>
+        <v>3712.062255859375</v>
       </c>
     </row>
     <row r="125">
@@ -2185,10 +2185,10 @@
         <v>175</v>
       </c>
       <c r="C125" t="n">
-        <v>35.64</v>
+        <v>31.99</v>
       </c>
       <c r="D125" t="n">
-        <v>3456.660400390625</v>
+        <v>3257.449462890625</v>
       </c>
     </row>
     <row r="126">
@@ -2199,10 +2199,10 @@
         <v>150</v>
       </c>
       <c r="C126" t="n">
-        <v>35.29</v>
+        <v>33.7</v>
       </c>
       <c r="D126" t="n">
-        <v>2904.853271484375</v>
+        <v>2959.185546875</v>
       </c>
     </row>
     <row r="127">
@@ -2213,10 +2213,10 @@
         <v>125</v>
       </c>
       <c r="C127" t="n">
-        <v>22.95</v>
+        <v>30.76</v>
       </c>
       <c r="D127" t="n">
-        <v>2486.918701171875</v>
+        <v>2654.279296875</v>
       </c>
     </row>
     <row r="128">
@@ -2227,10 +2227,10 @@
         <v>100</v>
       </c>
       <c r="C128" t="n">
-        <v>23.45</v>
+        <v>32.44</v>
       </c>
       <c r="D128" t="n">
-        <v>2440.44384765625</v>
+        <v>2033.0498046875</v>
       </c>
     </row>
     <row r="129">
@@ -2241,10 +2241,10 @@
         <v>75</v>
       </c>
       <c r="C129" t="n">
-        <v>29.21</v>
+        <v>31.61</v>
       </c>
       <c r="D129" t="n">
-        <v>1906.319580078125</v>
+        <v>2104.533203125</v>
       </c>
     </row>
     <row r="130">
@@ -2255,10 +2255,10 @@
         <v>50</v>
       </c>
       <c r="C130" t="n">
-        <v>28.19</v>
+        <v>31.23</v>
       </c>
       <c r="D130" t="n">
-        <v>1554.59521484375</v>
+        <v>1507.89501953125</v>
       </c>
     </row>
     <row r="131">
@@ -2269,10 +2269,10 @@
         <v>25</v>
       </c>
       <c r="C131" t="n">
-        <v>24.63</v>
+        <v>21.87</v>
       </c>
       <c r="D131" t="n">
-        <v>887.1066284179688</v>
+        <v>815.7267456054688</v>
       </c>
     </row>
     <row r="132">
@@ -2283,10 +2283,10 @@
         <v>250</v>
       </c>
       <c r="C132" t="n">
-        <v>37.93</v>
+        <v>41.36</v>
       </c>
       <c r="D132" t="n">
-        <v>3013.628173828125</v>
+        <v>4984.73388671875</v>
       </c>
     </row>
     <row r="133">
@@ -2297,10 +2297,10 @@
         <v>225</v>
       </c>
       <c r="C133" t="n">
-        <v>34.85</v>
+        <v>35.38</v>
       </c>
       <c r="D133" t="n">
-        <v>3868.47412109375</v>
+        <v>3547.156005859375</v>
       </c>
     </row>
     <row r="134">
@@ -2311,10 +2311,10 @@
         <v>200</v>
       </c>
       <c r="C134" t="n">
-        <v>31.5</v>
+        <v>32.73</v>
       </c>
       <c r="D134" t="n">
-        <v>4303.17724609375</v>
+        <v>3382.90185546875</v>
       </c>
     </row>
     <row r="135">
@@ -2325,10 +2325,10 @@
         <v>175</v>
       </c>
       <c r="C135" t="n">
-        <v>29.51</v>
+        <v>26.65</v>
       </c>
       <c r="D135" t="n">
-        <v>2748.649658203125</v>
+        <v>3905.448974609375</v>
       </c>
     </row>
     <row r="136">
@@ -2339,10 +2339,10 @@
         <v>150</v>
       </c>
       <c r="C136" t="n">
-        <v>32.79</v>
+        <v>37.12</v>
       </c>
       <c r="D136" t="n">
-        <v>2954.46728515625</v>
+        <v>2671.84619140625</v>
       </c>
     </row>
     <row r="137">
@@ -2353,10 +2353,10 @@
         <v>125</v>
       </c>
       <c r="C137" t="n">
-        <v>34.81</v>
+        <v>27.01</v>
       </c>
       <c r="D137" t="n">
-        <v>3050.777587890625</v>
+        <v>3499.01220703125</v>
       </c>
     </row>
     <row r="138">
@@ -2367,10 +2367,10 @@
         <v>100</v>
       </c>
       <c r="C138" t="n">
-        <v>34.22</v>
+        <v>18.96</v>
       </c>
       <c r="D138" t="n">
-        <v>2539.609375</v>
+        <v>1858.202514648438</v>
       </c>
     </row>
     <row r="139">
@@ -2381,10 +2381,10 @@
         <v>75</v>
       </c>
       <c r="C139" t="n">
-        <v>30.67</v>
+        <v>31.17</v>
       </c>
       <c r="D139" t="n">
-        <v>1942.339965820312</v>
+        <v>2064.883544921875</v>
       </c>
     </row>
     <row r="140">
@@ -2395,10 +2395,10 @@
         <v>50</v>
       </c>
       <c r="C140" t="n">
-        <v>31.05</v>
+        <v>28.92</v>
       </c>
       <c r="D140" t="n">
-        <v>1737.039184570312</v>
+        <v>1501.561889648438</v>
       </c>
     </row>
     <row r="141">
@@ -2409,10 +2409,10 @@
         <v>25</v>
       </c>
       <c r="C141" t="n">
-        <v>16.25</v>
+        <v>22.58</v>
       </c>
       <c r="D141" t="n">
-        <v>1011.511657714844</v>
+        <v>866.93310546875</v>
       </c>
     </row>
     <row r="142">
@@ -2423,10 +2423,10 @@
         <v>250</v>
       </c>
       <c r="C142" t="n">
-        <v>39.07</v>
+        <v>39.44</v>
       </c>
       <c r="D142" t="n">
-        <v>4036.652099609375</v>
+        <v>3901.2490234375</v>
       </c>
     </row>
     <row r="143">
@@ -2437,10 +2437,10 @@
         <v>225</v>
       </c>
       <c r="C143" t="n">
-        <v>37.01</v>
+        <v>35.56</v>
       </c>
       <c r="D143" t="n">
-        <v>3623.20947265625</v>
+        <v>2921.2861328125</v>
       </c>
     </row>
     <row r="144">
@@ -2451,10 +2451,10 @@
         <v>200</v>
       </c>
       <c r="C144" t="n">
-        <v>35.89</v>
+        <v>29.17</v>
       </c>
       <c r="D144" t="n">
-        <v>3923.85009765625</v>
+        <v>3382.097900390625</v>
       </c>
     </row>
     <row r="145">
@@ -2465,10 +2465,10 @@
         <v>175</v>
       </c>
       <c r="C145" t="n">
-        <v>28.98</v>
+        <v>34.31</v>
       </c>
       <c r="D145" t="n">
-        <v>2014.140014648438</v>
+        <v>3677.211669921875</v>
       </c>
     </row>
     <row r="146">
@@ -2479,10 +2479,10 @@
         <v>150</v>
       </c>
       <c r="C146" t="n">
-        <v>21.72</v>
+        <v>34.95</v>
       </c>
       <c r="D146" t="n">
-        <v>3579.00732421875</v>
+        <v>2720.86474609375</v>
       </c>
     </row>
     <row r="147">
@@ -2493,10 +2493,10 @@
         <v>125</v>
       </c>
       <c r="C147" t="n">
-        <v>34.99</v>
+        <v>34.66</v>
       </c>
       <c r="D147" t="n">
-        <v>2642.453369140625</v>
+        <v>2833.66162109375</v>
       </c>
     </row>
     <row r="148">
@@ -2507,10 +2507,10 @@
         <v>100</v>
       </c>
       <c r="C148" t="n">
-        <v>34.31</v>
+        <v>36.89</v>
       </c>
       <c r="D148" t="n">
-        <v>2364.075927734375</v>
+        <v>2617.570556640625</v>
       </c>
     </row>
     <row r="149">
@@ -2521,10 +2521,10 @@
         <v>75</v>
       </c>
       <c r="C149" t="n">
-        <v>27.6</v>
+        <v>25.22</v>
       </c>
       <c r="D149" t="n">
-        <v>2004.67529296875</v>
+        <v>2132.789794921875</v>
       </c>
     </row>
     <row r="150">
@@ -2535,10 +2535,10 @@
         <v>50</v>
       </c>
       <c r="C150" t="n">
-        <v>22.18</v>
+        <v>23.6</v>
       </c>
       <c r="D150" t="n">
-        <v>1211.509521484375</v>
+        <v>1420.54248046875</v>
       </c>
     </row>
     <row r="151">
@@ -2549,10 +2549,10 @@
         <v>25</v>
       </c>
       <c r="C151" t="n">
-        <v>26.94</v>
+        <v>18.51</v>
       </c>
       <c r="D151" t="n">
-        <v>852.4772338867188</v>
+        <v>826.5482177734375</v>
       </c>
     </row>
     <row r="152">
@@ -2563,10 +2563,10 @@
         <v>250</v>
       </c>
       <c r="C152" t="n">
-        <v>35.36</v>
+        <v>41.24</v>
       </c>
       <c r="D152" t="n">
-        <v>4387.99853515625</v>
+        <v>4517.658203125</v>
       </c>
     </row>
     <row r="153">
@@ -2577,10 +2577,10 @@
         <v>225</v>
       </c>
       <c r="C153" t="n">
-        <v>39.91</v>
+        <v>36.35</v>
       </c>
       <c r="D153" t="n">
-        <v>3848.76025390625</v>
+        <v>4085.501953125</v>
       </c>
     </row>
     <row r="154">
@@ -2591,10 +2591,10 @@
         <v>200</v>
       </c>
       <c r="C154" t="n">
-        <v>35.69</v>
+        <v>29.83</v>
       </c>
       <c r="D154" t="n">
-        <v>2869.886962890625</v>
+        <v>3630.333740234375</v>
       </c>
     </row>
     <row r="155">
@@ -2605,10 +2605,10 @@
         <v>175</v>
       </c>
       <c r="C155" t="n">
-        <v>37.07</v>
+        <v>27.92</v>
       </c>
       <c r="D155" t="n">
-        <v>3714.904296875</v>
+        <v>3541.624267578125</v>
       </c>
     </row>
     <row r="156">
@@ -2619,10 +2619,10 @@
         <v>150</v>
       </c>
       <c r="C156" t="n">
-        <v>23.64</v>
+        <v>33.15</v>
       </c>
       <c r="D156" t="n">
-        <v>2578.6787109375</v>
+        <v>3575.911376953125</v>
       </c>
     </row>
     <row r="157">
@@ -2633,10 +2633,10 @@
         <v>125</v>
       </c>
       <c r="C157" t="n">
-        <v>22.75</v>
+        <v>34.61</v>
       </c>
       <c r="D157" t="n">
-        <v>2389.142333984375</v>
+        <v>2899.249755859375</v>
       </c>
     </row>
     <row r="158">
@@ -2647,10 +2647,10 @@
         <v>100</v>
       </c>
       <c r="C158" t="n">
-        <v>33.92</v>
+        <v>30.45</v>
       </c>
       <c r="D158" t="n">
-        <v>3044.28955078125</v>
+        <v>2246.68310546875</v>
       </c>
     </row>
     <row r="159">
@@ -2661,10 +2661,10 @@
         <v>75</v>
       </c>
       <c r="C159" t="n">
-        <v>28.95</v>
+        <v>29.51</v>
       </c>
       <c r="D159" t="n">
-        <v>2112.533203125</v>
+        <v>1957.916870117188</v>
       </c>
     </row>
     <row r="160">
@@ -2675,10 +2675,10 @@
         <v>50</v>
       </c>
       <c r="C160" t="n">
-        <v>27.09</v>
+        <v>21.37</v>
       </c>
       <c r="D160" t="n">
-        <v>1668.492919921875</v>
+        <v>1481.9599609375</v>
       </c>
     </row>
     <row r="161">
@@ -2689,10 +2689,10 @@
         <v>25</v>
       </c>
       <c r="C161" t="n">
-        <v>25.09</v>
+        <v>14.06</v>
       </c>
       <c r="D161" t="n">
-        <v>899.5983276367188</v>
+        <v>774.68408203125</v>
       </c>
     </row>
     <row r="162">
@@ -2703,10 +2703,10 @@
         <v>250</v>
       </c>
       <c r="C162" t="n">
-        <v>37.25</v>
+        <v>24.59</v>
       </c>
       <c r="D162" t="n">
-        <v>3651.705810546875</v>
+        <v>2796.379638671875</v>
       </c>
     </row>
     <row r="163">
@@ -2717,10 +2717,10 @@
         <v>225</v>
       </c>
       <c r="C163" t="n">
-        <v>36.78</v>
+        <v>34.45</v>
       </c>
       <c r="D163" t="n">
-        <v>3289.951416015625</v>
+        <v>4434.369140625</v>
       </c>
     </row>
     <row r="164">
@@ -2731,10 +2731,10 @@
         <v>200</v>
       </c>
       <c r="C164" t="n">
-        <v>30.14</v>
+        <v>34.82</v>
       </c>
       <c r="D164" t="n">
-        <v>2695.168701171875</v>
+        <v>3519.221435546875</v>
       </c>
     </row>
     <row r="165">
@@ -2745,10 +2745,10 @@
         <v>175</v>
       </c>
       <c r="C165" t="n">
-        <v>34.36</v>
+        <v>36.43</v>
       </c>
       <c r="D165" t="n">
-        <v>2590.132080078125</v>
+        <v>3592.9443359375</v>
       </c>
     </row>
     <row r="166">
@@ -2759,10 +2759,10 @@
         <v>150</v>
       </c>
       <c r="C166" t="n">
-        <v>33.17</v>
+        <v>28.14</v>
       </c>
       <c r="D166" t="n">
-        <v>3410.21240234375</v>
+        <v>3543.466552734375</v>
       </c>
     </row>
     <row r="167">
@@ -2773,10 +2773,10 @@
         <v>125</v>
       </c>
       <c r="C167" t="n">
-        <v>34.15</v>
+        <v>30.95</v>
       </c>
       <c r="D167" t="n">
-        <v>2999.494873046875</v>
+        <v>2481.870849609375</v>
       </c>
     </row>
     <row r="168">
@@ -2787,10 +2787,10 @@
         <v>100</v>
       </c>
       <c r="C168" t="n">
-        <v>30.5</v>
+        <v>32.3</v>
       </c>
       <c r="D168" t="n">
-        <v>2580.419921875</v>
+        <v>2495.204833984375</v>
       </c>
     </row>
     <row r="169">
@@ -2801,10 +2801,10 @@
         <v>75</v>
       </c>
       <c r="C169" t="n">
-        <v>34.47</v>
+        <v>21.24</v>
       </c>
       <c r="D169" t="n">
-        <v>2191.971435546875</v>
+        <v>2208.44140625</v>
       </c>
     </row>
     <row r="170">
@@ -2815,10 +2815,10 @@
         <v>50</v>
       </c>
       <c r="C170" t="n">
-        <v>26.71</v>
+        <v>27.72</v>
       </c>
       <c r="D170" t="n">
-        <v>1523.912231445312</v>
+        <v>1760.560424804688</v>
       </c>
     </row>
     <row r="171">
@@ -2829,10 +2829,10 @@
         <v>25</v>
       </c>
       <c r="C171" t="n">
-        <v>28.79</v>
+        <v>15.56</v>
       </c>
       <c r="D171" t="n">
-        <v>895.409912109375</v>
+        <v>697.00537109375</v>
       </c>
     </row>
     <row r="172">
@@ -2843,10 +2843,10 @@
         <v>250</v>
       </c>
       <c r="C172" t="n">
-        <v>37.27</v>
+        <v>38.55</v>
       </c>
       <c r="D172" t="n">
-        <v>4115.640625</v>
+        <v>3938.719482421875</v>
       </c>
     </row>
     <row r="173">
@@ -2857,10 +2857,10 @@
         <v>225</v>
       </c>
       <c r="C173" t="n">
-        <v>37.25</v>
+        <v>34.68</v>
       </c>
       <c r="D173" t="n">
-        <v>4029.96923828125</v>
+        <v>4174.484375</v>
       </c>
     </row>
     <row r="174">
@@ -2871,10 +2871,10 @@
         <v>200</v>
       </c>
       <c r="C174" t="n">
-        <v>30.41</v>
+        <v>34.87</v>
       </c>
       <c r="D174" t="n">
-        <v>3398.82275390625</v>
+        <v>3642.337646484375</v>
       </c>
     </row>
     <row r="175">
@@ -2885,10 +2885,10 @@
         <v>175</v>
       </c>
       <c r="C175" t="n">
-        <v>35.86</v>
+        <v>35.39</v>
       </c>
       <c r="D175" t="n">
-        <v>2744.9375</v>
+        <v>3389.447021484375</v>
       </c>
     </row>
     <row r="176">
@@ -2899,10 +2899,10 @@
         <v>150</v>
       </c>
       <c r="C176" t="n">
-        <v>35.39</v>
+        <v>32.62</v>
       </c>
       <c r="D176" t="n">
-        <v>3689.48828125</v>
+        <v>3023.216796875</v>
       </c>
     </row>
     <row r="177">
@@ -2913,10 +2913,10 @@
         <v>125</v>
       </c>
       <c r="C177" t="n">
-        <v>23.73</v>
+        <v>26.79</v>
       </c>
       <c r="D177" t="n">
-        <v>2855.20068359375</v>
+        <v>2221.19580078125</v>
       </c>
     </row>
     <row r="178">
@@ -2927,10 +2927,10 @@
         <v>100</v>
       </c>
       <c r="C178" t="n">
-        <v>28.7</v>
+        <v>25.68</v>
       </c>
       <c r="D178" t="n">
-        <v>2629.923095703125</v>
+        <v>2909.876220703125</v>
       </c>
     </row>
     <row r="179">
@@ -2941,10 +2941,10 @@
         <v>75</v>
       </c>
       <c r="C179" t="n">
-        <v>28.75</v>
+        <v>26.36</v>
       </c>
       <c r="D179" t="n">
-        <v>1931.024658203125</v>
+        <v>2141.652587890625</v>
       </c>
     </row>
     <row r="180">
@@ -2955,10 +2955,10 @@
         <v>50</v>
       </c>
       <c r="C180" t="n">
-        <v>24.37</v>
+        <v>31.92</v>
       </c>
       <c r="D180" t="n">
-        <v>1792.144653320312</v>
+        <v>1518.05810546875</v>
       </c>
     </row>
     <row r="181">
@@ -2969,10 +2969,10 @@
         <v>25</v>
       </c>
       <c r="C181" t="n">
-        <v>23.32</v>
+        <v>15.62</v>
       </c>
       <c r="D181" t="n">
-        <v>729.5650024414062</v>
+        <v>930.1929321289062</v>
       </c>
     </row>
     <row r="182">
@@ -2983,10 +2983,10 @@
         <v>250</v>
       </c>
       <c r="C182" t="n">
-        <v>40.34</v>
+        <v>34.74</v>
       </c>
       <c r="D182" t="n">
-        <v>3631.686279296875</v>
+        <v>3738.3857421875</v>
       </c>
     </row>
     <row r="183">
@@ -2997,10 +2997,10 @@
         <v>225</v>
       </c>
       <c r="C183" t="n">
-        <v>28.48</v>
+        <v>37.67</v>
       </c>
       <c r="D183" t="n">
-        <v>2945.912353515625</v>
+        <v>4022.38232421875</v>
       </c>
     </row>
     <row r="184">
@@ -3011,10 +3011,10 @@
         <v>200</v>
       </c>
       <c r="C184" t="n">
-        <v>26.78</v>
+        <v>40.38</v>
       </c>
       <c r="D184" t="n">
-        <v>3102.395751953125</v>
+        <v>3772.56689453125</v>
       </c>
     </row>
     <row r="185">
@@ -3025,10 +3025,10 @@
         <v>175</v>
       </c>
       <c r="C185" t="n">
-        <v>37.84</v>
+        <v>35.23</v>
       </c>
       <c r="D185" t="n">
-        <v>3717.95361328125</v>
+        <v>2196.02783203125</v>
       </c>
     </row>
     <row r="186">
@@ -3039,10 +3039,10 @@
         <v>150</v>
       </c>
       <c r="C186" t="n">
-        <v>32.13</v>
+        <v>37.55</v>
       </c>
       <c r="D186" t="n">
-        <v>3260.401611328125</v>
+        <v>2734.26513671875</v>
       </c>
     </row>
     <row r="187">
@@ -3053,10 +3053,10 @@
         <v>125</v>
       </c>
       <c r="C187" t="n">
-        <v>30.41</v>
+        <v>32.38</v>
       </c>
       <c r="D187" t="n">
-        <v>2805.985107421875</v>
+        <v>2489.318603515625</v>
       </c>
     </row>
     <row r="188">
@@ -3067,10 +3067,10 @@
         <v>100</v>
       </c>
       <c r="C188" t="n">
-        <v>28.76</v>
+        <v>33.3</v>
       </c>
       <c r="D188" t="n">
-        <v>2477.7763671875</v>
+        <v>2889.712890625</v>
       </c>
     </row>
     <row r="189">
@@ -3081,10 +3081,10 @@
         <v>75</v>
       </c>
       <c r="C189" t="n">
-        <v>32.68</v>
+        <v>28.07</v>
       </c>
       <c r="D189" t="n">
-        <v>2126.12646484375</v>
+        <v>2016.273315429688</v>
       </c>
     </row>
     <row r="190">
@@ -3095,10 +3095,10 @@
         <v>50</v>
       </c>
       <c r="C190" t="n">
-        <v>29.19</v>
+        <v>27.48</v>
       </c>
       <c r="D190" t="n">
-        <v>1668.7109375</v>
+        <v>1362.244262695312</v>
       </c>
     </row>
     <row r="191">
@@ -3109,10 +3109,10 @@
         <v>25</v>
       </c>
       <c r="C191" t="n">
-        <v>18.52</v>
+        <v>24.84</v>
       </c>
       <c r="D191" t="n">
-        <v>889.293212890625</v>
+        <v>772.0731201171875</v>
       </c>
     </row>
     <row r="192">
@@ -3123,10 +3123,10 @@
         <v>250</v>
       </c>
       <c r="C192" t="n">
-        <v>37.52</v>
+        <v>32.6</v>
       </c>
       <c r="D192" t="n">
-        <v>4017.3603515625</v>
+        <v>3872.664306640625</v>
       </c>
     </row>
     <row r="193">
@@ -3137,10 +3137,10 @@
         <v>225</v>
       </c>
       <c r="C193" t="n">
-        <v>40.87</v>
+        <v>38.23</v>
       </c>
       <c r="D193" t="n">
-        <v>4356.740234375</v>
+        <v>3958.904541015625</v>
       </c>
     </row>
     <row r="194">
@@ -3151,10 +3151,10 @@
         <v>200</v>
       </c>
       <c r="C194" t="n">
-        <v>33.8</v>
+        <v>38.08</v>
       </c>
       <c r="D194" t="n">
-        <v>3960.707763671875</v>
+        <v>4019.0712890625</v>
       </c>
     </row>
     <row r="195">
@@ -3165,10 +3165,10 @@
         <v>175</v>
       </c>
       <c r="C195" t="n">
-        <v>37.2</v>
+        <v>39.94</v>
       </c>
       <c r="D195" t="n">
-        <v>4457.3974609375</v>
+        <v>3190.846923828125</v>
       </c>
     </row>
     <row r="196">
@@ -3179,10 +3179,10 @@
         <v>150</v>
       </c>
       <c r="C196" t="n">
-        <v>33</v>
+        <v>34.28</v>
       </c>
       <c r="D196" t="n">
-        <v>2862.642578125</v>
+        <v>2620.68359375</v>
       </c>
     </row>
     <row r="197">
@@ -3193,10 +3193,10 @@
         <v>125</v>
       </c>
       <c r="C197" t="n">
-        <v>30.82</v>
+        <v>33.64</v>
       </c>
       <c r="D197" t="n">
-        <v>2881.580078125</v>
+        <v>2471.39208984375</v>
       </c>
     </row>
     <row r="198">
@@ -3207,10 +3207,10 @@
         <v>100</v>
       </c>
       <c r="C198" t="n">
-        <v>35.24</v>
+        <v>31.9</v>
       </c>
       <c r="D198" t="n">
-        <v>2858.884033203125</v>
+        <v>2170.35546875</v>
       </c>
     </row>
     <row r="199">
@@ -3221,10 +3221,10 @@
         <v>75</v>
       </c>
       <c r="C199" t="n">
-        <v>22.83</v>
+        <v>34.97</v>
       </c>
       <c r="D199" t="n">
-        <v>2098.09228515625</v>
+        <v>2279.345458984375</v>
       </c>
     </row>
     <row r="200">
@@ -3235,10 +3235,10 @@
         <v>50</v>
       </c>
       <c r="C200" t="n">
-        <v>21.21</v>
+        <v>25.37</v>
       </c>
       <c r="D200" t="n">
-        <v>1699.214233398438</v>
+        <v>1606.175537109375</v>
       </c>
     </row>
     <row r="201">
@@ -3249,10 +3249,10 @@
         <v>25</v>
       </c>
       <c r="C201" t="n">
-        <v>20.85</v>
+        <v>25.54</v>
       </c>
       <c r="D201" t="n">
-        <v>836.0619506835938</v>
+        <v>876.5625610351562</v>
       </c>
     </row>
   </sheetData>
